--- a/Com-port-mdb-scanner-main/0520_MO07987_TV-wand (1-1)_GANNOMAT.xlsx
+++ b/Com-port-mdb-scanner-main/0520_MO07987_TV-wand (1-1)_GANNOMAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>ProgramNumber</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +451,7 @@
           <t>MW_02TZ031</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +459,7 @@
           <t>MW_02TZ041</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +467,7 @@
           <t>MW_02TZ011</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +475,7 @@
           <t>MW_02TZ021</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
